--- a/natmiOut/YoungD2/LR-pairs_lrc2p/F2-Thbd.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/F2-Thbd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,12 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Thbd</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H2">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I2">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J2">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.4470572141616</v>
+        <v>32.16470200000001</v>
       </c>
       <c r="N2">
-        <v>29.4470572141616</v>
+        <v>96.49410600000002</v>
       </c>
       <c r="O2">
-        <v>0.4087723030370145</v>
+        <v>0.4018017290405418</v>
       </c>
       <c r="P2">
-        <v>0.4087723030370145</v>
+        <v>0.4018017290405418</v>
       </c>
       <c r="Q2">
-        <v>8.906950620850463</v>
+        <v>13.30050097499134</v>
       </c>
       <c r="R2">
-        <v>8.906950620850463</v>
+        <v>119.704508774922</v>
       </c>
       <c r="S2">
-        <v>0.07923635715215765</v>
+        <v>0.08522641240234169</v>
       </c>
       <c r="T2">
-        <v>0.07923635715215765</v>
+        <v>0.08522641240234169</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H3">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I3">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J3">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.5635169635179</v>
+        <v>13.83257733333333</v>
       </c>
       <c r="N3">
-        <v>13.5635169635179</v>
+        <v>41.497732</v>
       </c>
       <c r="O3">
-        <v>0.1882833325631069</v>
+        <v>0.1727966728751393</v>
       </c>
       <c r="P3">
-        <v>0.1882833325631069</v>
+        <v>0.1727966728751393</v>
       </c>
       <c r="Q3">
-        <v>4.102602679802657</v>
+        <v>5.719941329120444</v>
       </c>
       <c r="R3">
-        <v>4.102602679802657</v>
+        <v>51.479471962084</v>
       </c>
       <c r="S3">
-        <v>0.03649681075241026</v>
+        <v>0.03665200878894977</v>
       </c>
       <c r="T3">
-        <v>0.03649681075241026</v>
+        <v>0.03665200878894977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H4">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I4">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J4">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.46660362562889</v>
+        <v>12.759553</v>
       </c>
       <c r="N4">
-        <v>8.46660362562889</v>
+        <v>38.278659</v>
       </c>
       <c r="O4">
-        <v>0.1175300145538972</v>
+        <v>0.1593924438405937</v>
       </c>
       <c r="P4">
-        <v>0.1175300145538972</v>
+        <v>0.1593924438405937</v>
       </c>
       <c r="Q4">
-        <v>2.560922127849274</v>
+        <v>5.276232533320334</v>
       </c>
       <c r="R4">
-        <v>2.560922127849274</v>
+        <v>47.486092799883</v>
       </c>
       <c r="S4">
-        <v>0.02278199902513362</v>
+        <v>0.03380882950656704</v>
       </c>
       <c r="T4">
-        <v>0.02278199902513362</v>
+        <v>0.03380882950656704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H5">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I5">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J5">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.41787025121568</v>
+        <v>8.611390999999999</v>
       </c>
       <c r="N5">
-        <v>8.41787025121568</v>
+        <v>25.834173</v>
       </c>
       <c r="O5">
-        <v>0.1168535172880152</v>
+        <v>0.1075735691020598</v>
       </c>
       <c r="P5">
-        <v>0.1168535172880152</v>
+        <v>0.1075735691020598</v>
       </c>
       <c r="Q5">
-        <v>2.546181579877739</v>
+        <v>3.560916385655666</v>
       </c>
       <c r="R5">
-        <v>2.546181579877739</v>
+        <v>32.048247470901</v>
       </c>
       <c r="S5">
-        <v>0.0226508669044551</v>
+        <v>0.02281749604656102</v>
       </c>
       <c r="T5">
-        <v>0.0226508669044551</v>
+        <v>0.02281749604656102</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H6">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I6">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J6">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.69052993462176</v>
+        <v>7.803816</v>
       </c>
       <c r="N6">
-        <v>7.69052993462176</v>
+        <v>23.411448</v>
       </c>
       <c r="O6">
-        <v>0.1067568691189485</v>
+        <v>0.09748533538144531</v>
       </c>
       <c r="P6">
-        <v>0.1067568691189485</v>
+        <v>0.0974853353814453</v>
       </c>
       <c r="Q6">
-        <v>2.326180503459813</v>
+        <v>3.226974163064</v>
       </c>
       <c r="R6">
-        <v>2.326180503459813</v>
+        <v>29.042767467576</v>
       </c>
       <c r="S6">
-        <v>0.02069373425525159</v>
+        <v>0.02067767457407168</v>
       </c>
       <c r="T6">
-        <v>0.02069373425525159</v>
+        <v>0.02067767457407168</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.302473369616267</v>
+        <v>0.4135123333333333</v>
       </c>
       <c r="H7">
-        <v>0.302473369616267</v>
+        <v>1.240537</v>
       </c>
       <c r="I7">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="J7">
-        <v>0.1938398383732539</v>
+        <v>0.212110616362585</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.45222152755762</v>
+        <v>4.879139333333334</v>
       </c>
       <c r="N7">
-        <v>4.45222152755762</v>
+        <v>14.637418</v>
       </c>
       <c r="O7">
-        <v>0.06180396343901759</v>
+        <v>0.06095024976022007</v>
       </c>
       <c r="P7">
-        <v>0.06180396343901759</v>
+        <v>0.06095024976022006</v>
       </c>
       <c r="Q7">
-        <v>1.346678447718437</v>
+        <v>2.017584290385111</v>
       </c>
       <c r="R7">
-        <v>1.346678447718437</v>
+        <v>18.158258613466</v>
       </c>
       <c r="S7">
-        <v>0.01198007028384566</v>
+        <v>0.01292819504409377</v>
       </c>
       <c r="T7">
-        <v>0.01198007028384566</v>
+        <v>0.01292819504409378</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H8">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I8">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J8">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.4470572141616</v>
+        <v>32.16470200000001</v>
       </c>
       <c r="N8">
-        <v>29.4470572141616</v>
+        <v>96.49410600000002</v>
       </c>
       <c r="O8">
-        <v>0.4087723030370145</v>
+        <v>0.4018017290405418</v>
       </c>
       <c r="P8">
-        <v>0.4087723030370145</v>
+        <v>0.4018017290405418</v>
       </c>
       <c r="Q8">
-        <v>17.32180301310499</v>
+        <v>19.42015717751134</v>
       </c>
       <c r="R8">
-        <v>17.32180301310499</v>
+        <v>174.781414597602</v>
       </c>
       <c r="S8">
-        <v>0.1540950015881704</v>
+        <v>0.1244396979964099</v>
       </c>
       <c r="T8">
-        <v>0.1540950015881704</v>
+        <v>0.1244396979964099</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H9">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I9">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J9">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.5635169635179</v>
+        <v>13.83257733333333</v>
       </c>
       <c r="N9">
-        <v>13.5635169635179</v>
+        <v>41.497732</v>
       </c>
       <c r="O9">
-        <v>0.1882833325631069</v>
+        <v>0.1727966728751393</v>
       </c>
       <c r="P9">
-        <v>0.1882833325631069</v>
+        <v>0.1727966728751393</v>
       </c>
       <c r="Q9">
-        <v>7.978541532971114</v>
+        <v>8.351727492560444</v>
       </c>
       <c r="R9">
-        <v>7.978541532971114</v>
+        <v>75.165547433044</v>
       </c>
       <c r="S9">
-        <v>0.0709772169366152</v>
+        <v>0.05351586176274802</v>
       </c>
       <c r="T9">
-        <v>0.0709772169366152</v>
+        <v>0.05351586176274802</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H10">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I10">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J10">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.46660362562889</v>
+        <v>12.759553</v>
       </c>
       <c r="N10">
-        <v>8.46660362562889</v>
+        <v>38.278659</v>
       </c>
       <c r="O10">
-        <v>0.1175300145538972</v>
+        <v>0.1593924438405937</v>
       </c>
       <c r="P10">
-        <v>0.1175300145538972</v>
+        <v>0.1593924438405937</v>
       </c>
       <c r="Q10">
-        <v>4.98035641139225</v>
+        <v>7.703865087100335</v>
       </c>
       <c r="R10">
-        <v>4.98035641139225</v>
+        <v>69.33478578390302</v>
       </c>
       <c r="S10">
-        <v>0.04430532021074958</v>
+        <v>0.04936451523440776</v>
       </c>
       <c r="T10">
-        <v>0.04430532021074958</v>
+        <v>0.04936451523440776</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H11">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I11">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J11">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.41787025121568</v>
+        <v>8.611390999999999</v>
       </c>
       <c r="N11">
-        <v>8.41787025121568</v>
+        <v>25.834173</v>
       </c>
       <c r="O11">
-        <v>0.1168535172880152</v>
+        <v>0.1075735691020598</v>
       </c>
       <c r="P11">
-        <v>0.1168535172880152</v>
+        <v>0.1075735691020598</v>
       </c>
       <c r="Q11">
-        <v>4.951689712862404</v>
+        <v>5.199319637315666</v>
       </c>
       <c r="R11">
-        <v>4.951689712862404</v>
+        <v>46.793876735841</v>
       </c>
       <c r="S11">
-        <v>0.0440503008601576</v>
+        <v>0.03331599016117114</v>
       </c>
       <c r="T11">
-        <v>0.0440503008601576</v>
+        <v>0.03331599016117115</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H12">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I12">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J12">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.69052993462176</v>
+        <v>7.803816</v>
       </c>
       <c r="N12">
-        <v>7.69052993462176</v>
+        <v>23.411448</v>
       </c>
       <c r="O12">
-        <v>0.1067568691189485</v>
+        <v>0.09748533538144531</v>
       </c>
       <c r="P12">
-        <v>0.1067568691189485</v>
+        <v>0.0974853353814453</v>
       </c>
       <c r="Q12">
-        <v>4.523842352907185</v>
+        <v>4.711728195224</v>
       </c>
       <c r="R12">
-        <v>4.523842352907185</v>
+        <v>42.405553757016</v>
       </c>
       <c r="S12">
-        <v>0.04024416476901775</v>
+        <v>0.03019162143207642</v>
       </c>
       <c r="T12">
-        <v>0.04024416476901775</v>
+        <v>0.03019162143207643</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.588235452090426</v>
+        <v>0.6037723333333334</v>
       </c>
       <c r="H13">
-        <v>0.588235452090426</v>
+        <v>1.811317</v>
       </c>
       <c r="I13">
-        <v>0.3769702605663502</v>
+        <v>0.3097042371956889</v>
       </c>
       <c r="J13">
-        <v>0.3769702605663502</v>
+        <v>0.309704237195689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.45222152755762</v>
+        <v>4.879139333333334</v>
       </c>
       <c r="N13">
-        <v>4.45222152755762</v>
+        <v>14.637418</v>
       </c>
       <c r="O13">
-        <v>0.06180396343901759</v>
+        <v>0.06095024976022007</v>
       </c>
       <c r="P13">
-        <v>0.06180396343901759</v>
+        <v>0.06095024976022006</v>
       </c>
       <c r="Q13">
-        <v>2.618954543069584</v>
+        <v>2.945889339945111</v>
       </c>
       <c r="R13">
-        <v>2.618954543069584</v>
+        <v>26.513004059506</v>
       </c>
       <c r="S13">
-        <v>0.02329825620163965</v>
+        <v>0.01887655060887567</v>
       </c>
       <c r="T13">
-        <v>0.02329825620163965</v>
+        <v>0.01887655060887568</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H14">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I14">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J14">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.4470572141616</v>
+        <v>32.16470200000001</v>
       </c>
       <c r="N14">
-        <v>29.4470572141616</v>
+        <v>96.49410600000002</v>
       </c>
       <c r="O14">
-        <v>0.4087723030370145</v>
+        <v>0.4018017290405418</v>
       </c>
       <c r="P14">
-        <v>0.4087723030370145</v>
+        <v>0.4018017290405418</v>
       </c>
       <c r="Q14">
-        <v>8.164857904484403</v>
+        <v>9.687708038514668</v>
       </c>
       <c r="R14">
-        <v>8.164857904484403</v>
+        <v>87.18937234663201</v>
       </c>
       <c r="S14">
-        <v>0.07263468998041561</v>
+        <v>0.06207650389082203</v>
       </c>
       <c r="T14">
-        <v>0.07263468998041561</v>
+        <v>0.06207650389082203</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H15">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I15">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J15">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.5635169635179</v>
+        <v>13.83257733333333</v>
       </c>
       <c r="N15">
-        <v>13.5635169635179</v>
+        <v>41.497732</v>
       </c>
       <c r="O15">
-        <v>0.1882833325631069</v>
+        <v>0.1727966728751393</v>
       </c>
       <c r="P15">
-        <v>0.1882833325631069</v>
+        <v>0.1727966728751393</v>
       </c>
       <c r="Q15">
-        <v>3.76078967371071</v>
+        <v>4.166243188744889</v>
       </c>
       <c r="R15">
-        <v>3.76078967371071</v>
+        <v>37.496188698704</v>
       </c>
       <c r="S15">
-        <v>0.03345603747512806</v>
+        <v>0.02669628466176254</v>
       </c>
       <c r="T15">
-        <v>0.03345603747512806</v>
+        <v>0.02669628466176254</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H16">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I16">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J16">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.46660362562889</v>
+        <v>12.759553</v>
       </c>
       <c r="N16">
-        <v>8.46660362562889</v>
+        <v>38.278659</v>
       </c>
       <c r="O16">
-        <v>0.1175300145538972</v>
+        <v>0.1593924438405937</v>
       </c>
       <c r="P16">
-        <v>0.1175300145538972</v>
+        <v>0.1593924438405937</v>
       </c>
       <c r="Q16">
-        <v>2.347555989520311</v>
+        <v>3.843058274438667</v>
       </c>
       <c r="R16">
-        <v>2.347555989520311</v>
+        <v>34.58752446994801</v>
       </c>
       <c r="S16">
-        <v>0.02088389087785885</v>
+        <v>0.02462539343438188</v>
       </c>
       <c r="T16">
-        <v>0.02088389087785885</v>
+        <v>0.02462539343438188</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H17">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I17">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J17">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.41787025121568</v>
+        <v>8.611390999999999</v>
       </c>
       <c r="N17">
-        <v>8.41787025121568</v>
+        <v>25.834173</v>
       </c>
       <c r="O17">
-        <v>0.1168535172880152</v>
+        <v>0.1075735691020598</v>
       </c>
       <c r="P17">
-        <v>0.1168535172880152</v>
+        <v>0.1075735691020598</v>
       </c>
       <c r="Q17">
-        <v>2.334043567060028</v>
+        <v>2.593670596217333</v>
       </c>
       <c r="R17">
-        <v>2.334043567060028</v>
+        <v>23.343035365956</v>
       </c>
       <c r="S17">
-        <v>0.02076368417888519</v>
+        <v>0.01661961758317828</v>
       </c>
       <c r="T17">
-        <v>0.02076368417888519</v>
+        <v>0.01661961758317828</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H18">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I18">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J18">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.69052993462176</v>
+        <v>7.803816</v>
       </c>
       <c r="N18">
-        <v>7.69052993462176</v>
+        <v>23.411448</v>
       </c>
       <c r="O18">
-        <v>0.1067568691189485</v>
+        <v>0.09748533538144531</v>
       </c>
       <c r="P18">
-        <v>0.1067568691189485</v>
+        <v>0.0974853353814453</v>
       </c>
       <c r="Q18">
-        <v>2.132372130420306</v>
+        <v>2.350436543584</v>
       </c>
       <c r="R18">
-        <v>2.132372130420306</v>
+        <v>21.153928892256</v>
       </c>
       <c r="S18">
-        <v>0.01896961226121154</v>
+        <v>0.01506103225477603</v>
       </c>
       <c r="T18">
-        <v>0.01896961226121154</v>
+        <v>0.01506103225477603</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.277272456976033</v>
+        <v>0.3011906666666667</v>
       </c>
       <c r="H19">
-        <v>0.277272456976033</v>
+        <v>0.903572</v>
       </c>
       <c r="I19">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727134</v>
       </c>
       <c r="J19">
-        <v>0.1776898518827449</v>
+        <v>0.1544953627727135</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.45222152755762</v>
+        <v>4.879139333333334</v>
       </c>
       <c r="N19">
-        <v>4.45222152755762</v>
+        <v>14.637418</v>
       </c>
       <c r="O19">
-        <v>0.06180396343901759</v>
+        <v>0.06095024976022007</v>
       </c>
       <c r="P19">
-        <v>0.06180396343901759</v>
+        <v>0.06095024976022006</v>
       </c>
       <c r="Q19">
-        <v>1.234478401947488</v>
+        <v>1.469551228566222</v>
       </c>
       <c r="R19">
-        <v>1.234478401947488</v>
+        <v>13.225961057096</v>
       </c>
       <c r="S19">
-        <v>0.01098193710924562</v>
+        <v>0.009416530947792689</v>
       </c>
       <c r="T19">
-        <v>0.01098193710924562</v>
+        <v>0.009416530947792691</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.392448053877027</v>
+        <v>0.1320703333333333</v>
       </c>
       <c r="H20">
-        <v>0.392448053877027</v>
+        <v>0.396211</v>
       </c>
       <c r="I20">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483012</v>
       </c>
       <c r="J20">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483014</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>29.4470572141616</v>
+        <v>32.16470200000001</v>
       </c>
       <c r="N20">
-        <v>29.4470572141616</v>
+        <v>96.49410600000002</v>
       </c>
       <c r="O20">
-        <v>0.4087723030370145</v>
+        <v>0.4018017290405418</v>
       </c>
       <c r="P20">
-        <v>0.4087723030370145</v>
+        <v>0.4018017290405418</v>
       </c>
       <c r="Q20">
-        <v>11.55644029610319</v>
+        <v>4.248002914707333</v>
       </c>
       <c r="R20">
-        <v>11.55644029610319</v>
+        <v>38.232026232366</v>
       </c>
       <c r="S20">
-        <v>0.1028062543162708</v>
+        <v>0.02722018132820238</v>
       </c>
       <c r="T20">
-        <v>0.1028062543162708</v>
+        <v>0.02722018132820238</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.392448053877027</v>
+        <v>0.1320703333333333</v>
       </c>
       <c r="H21">
-        <v>0.392448053877027</v>
+        <v>0.396211</v>
       </c>
       <c r="I21">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483012</v>
       </c>
       <c r="J21">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483014</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.5635169635179</v>
+        <v>13.83257733333333</v>
       </c>
       <c r="N21">
-        <v>13.5635169635179</v>
+        <v>41.497732</v>
       </c>
       <c r="O21">
-        <v>0.1882833325631069</v>
+        <v>0.1727966728751393</v>
       </c>
       <c r="P21">
-        <v>0.1882833325631069</v>
+        <v>0.1727966728751393</v>
       </c>
       <c r="Q21">
-        <v>5.322975836060643</v>
+        <v>1.826873099272444</v>
       </c>
       <c r="R21">
-        <v>5.322975836060643</v>
+        <v>16.441857893452</v>
       </c>
       <c r="S21">
-        <v>0.04735326739895341</v>
+        <v>0.01170616358422085</v>
       </c>
       <c r="T21">
-        <v>0.04735326739895341</v>
+        <v>0.01170616358422085</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.392448053877027</v>
+        <v>0.1320703333333333</v>
       </c>
       <c r="H22">
-        <v>0.392448053877027</v>
+        <v>0.396211</v>
       </c>
       <c r="I22">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483012</v>
       </c>
       <c r="J22">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483014</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.46660362562889</v>
+        <v>12.759553</v>
       </c>
       <c r="N22">
-        <v>8.46660362562889</v>
+        <v>38.278659</v>
       </c>
       <c r="O22">
-        <v>0.1175300145538972</v>
+        <v>0.1593924438405937</v>
       </c>
       <c r="P22">
-        <v>0.1175300145538972</v>
+        <v>0.1593924438405937</v>
       </c>
       <c r="Q22">
-        <v>3.322702115826239</v>
+        <v>1.685158417894334</v>
       </c>
       <c r="R22">
-        <v>3.322702115826239</v>
+        <v>15.166425761049</v>
       </c>
       <c r="S22">
-        <v>0.0295588044401552</v>
+        <v>0.01079808997847419</v>
       </c>
       <c r="T22">
-        <v>0.0295588044401552</v>
+        <v>0.01079808997847419</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.392448053877027</v>
+        <v>0.1320703333333333</v>
       </c>
       <c r="H23">
-        <v>0.392448053877027</v>
+        <v>0.396211</v>
       </c>
       <c r="I23">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483012</v>
       </c>
       <c r="J23">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483014</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.41787025121568</v>
+        <v>8.611390999999999</v>
       </c>
       <c r="N23">
-        <v>8.41787025121568</v>
+        <v>25.834173</v>
       </c>
       <c r="O23">
-        <v>0.1168535172880152</v>
+        <v>0.1075735691020598</v>
       </c>
       <c r="P23">
-        <v>0.1168535172880152</v>
+        <v>0.1075735691020598</v>
       </c>
       <c r="Q23">
-        <v>3.303576797878914</v>
+        <v>1.137309279833666</v>
       </c>
       <c r="R23">
-        <v>3.303576797878914</v>
+        <v>10.235783518503</v>
       </c>
       <c r="S23">
-        <v>0.02938866534451731</v>
+        <v>0.007287604421394919</v>
       </c>
       <c r="T23">
-        <v>0.02938866534451731</v>
+        <v>0.00728760442139492</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.392448053877027</v>
+        <v>0.1320703333333333</v>
       </c>
       <c r="H24">
-        <v>0.392448053877027</v>
+        <v>0.396211</v>
       </c>
       <c r="I24">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483012</v>
       </c>
       <c r="J24">
-        <v>0.251500049177651</v>
+        <v>0.06774530660483014</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.69052993462176</v>
+        <v>7.803816</v>
       </c>
       <c r="N24">
-        <v>7.69052993462176</v>
+        <v>23.411448</v>
       </c>
       <c r="O24">
-        <v>0.1067568691189485</v>
+        <v>0.09748533538144531</v>
       </c>
       <c r="P24">
-        <v>0.1067568691189485</v>
+        <v>0.0974853353814453</v>
       </c>
       <c r="Q24">
-        <v>3.01813350612533</v>
+        <v>1.030652580392</v>
       </c>
       <c r="R24">
-        <v>3.01813350612533</v>
+        <v>9.275873223528</v>
       </c>
       <c r="S24">
-        <v>0.02684935783346759</v>
+        <v>0.006604173934890707</v>
       </c>
       <c r="T24">
-        <v>0.02684935783346759</v>
+        <v>0.006604173934890707</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.1320703333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.396211</v>
+      </c>
+      <c r="I25">
+        <v>0.06774530660483012</v>
+      </c>
+      <c r="J25">
+        <v>0.06774530660483014</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.879139333333334</v>
+      </c>
+      <c r="N25">
+        <v>14.637418</v>
+      </c>
+      <c r="O25">
+        <v>0.06095024976022007</v>
+      </c>
+      <c r="P25">
+        <v>0.06095024976022006</v>
+      </c>
+      <c r="Q25">
+        <v>0.6443895581331111</v>
+      </c>
+      <c r="R25">
+        <v>5.799506023198</v>
+      </c>
+      <c r="S25">
+        <v>0.004129093357647082</v>
+      </c>
+      <c r="T25">
+        <v>0.004129093357647082</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.223082</v>
+      </c>
+      <c r="I26">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J26">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>32.16470200000001</v>
+      </c>
+      <c r="N26">
+        <v>96.49410600000002</v>
+      </c>
+      <c r="O26">
+        <v>0.4018017290405418</v>
+      </c>
+      <c r="P26">
+        <v>0.4018017290405418</v>
+      </c>
+      <c r="Q26">
+        <v>2.391788683854667</v>
+      </c>
+      <c r="R26">
+        <v>21.526098154692</v>
+      </c>
+      <c r="S26">
+        <v>0.01532600682731687</v>
+      </c>
+      <c r="T26">
+        <v>0.01532600682731687</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.223082</v>
+      </c>
+      <c r="I27">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J27">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>13.83257733333333</v>
+      </c>
+      <c r="N27">
+        <v>41.497732</v>
+      </c>
+      <c r="O27">
+        <v>0.1727966728751393</v>
+      </c>
+      <c r="P27">
+        <v>0.1727966728751393</v>
+      </c>
+      <c r="Q27">
+        <v>1.028599672224889</v>
+      </c>
+      <c r="R27">
+        <v>9.257397050024</v>
+      </c>
+      <c r="S27">
+        <v>0.006591019392937489</v>
+      </c>
+      <c r="T27">
+        <v>0.006591019392937488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.223082</v>
+      </c>
+      <c r="I28">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J28">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>12.759553</v>
+      </c>
+      <c r="N28">
+        <v>38.278659</v>
+      </c>
+      <c r="O28">
+        <v>0.1593924438405937</v>
+      </c>
+      <c r="P28">
+        <v>0.1593924438405937</v>
+      </c>
+      <c r="Q28">
+        <v>0.9488088674486669</v>
+      </c>
+      <c r="R28">
+        <v>8.539279807038001</v>
+      </c>
+      <c r="S28">
+        <v>0.006079739100070365</v>
+      </c>
+      <c r="T28">
+        <v>0.006079739100070364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.223082</v>
+      </c>
+      <c r="I29">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J29">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8.611390999999999</v>
+      </c>
+      <c r="N29">
+        <v>25.834173</v>
+      </c>
+      <c r="O29">
+        <v>0.1075735691020598</v>
+      </c>
+      <c r="P29">
+        <v>0.1075735691020598</v>
+      </c>
+      <c r="Q29">
+        <v>0.6403487756873333</v>
+      </c>
+      <c r="R29">
+        <v>5.763138981186</v>
+      </c>
+      <c r="S29">
+        <v>0.00410320099526167</v>
+      </c>
+      <c r="T29">
+        <v>0.00410320099526167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.223082</v>
+      </c>
+      <c r="I30">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J30">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>7.803816</v>
+      </c>
+      <c r="N30">
+        <v>23.411448</v>
+      </c>
+      <c r="O30">
+        <v>0.09748533538144531</v>
+      </c>
+      <c r="P30">
+        <v>0.0974853353814453</v>
+      </c>
+      <c r="Q30">
+        <v>0.580296960304</v>
+      </c>
+      <c r="R30">
+        <v>5.222672642736</v>
+      </c>
+      <c r="S30">
+        <v>0.003718403400570123</v>
+      </c>
+      <c r="T30">
+        <v>0.003718403400570122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.07436066666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.223082</v>
+      </c>
+      <c r="I31">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="J31">
+        <v>0.03814320775551087</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.879139333333334</v>
+      </c>
+      <c r="N31">
+        <v>14.637418</v>
+      </c>
+      <c r="O31">
+        <v>0.06095024976022007</v>
+      </c>
+      <c r="P31">
+        <v>0.06095024976022006</v>
+      </c>
+      <c r="Q31">
+        <v>0.3628160535862223</v>
+      </c>
+      <c r="R31">
+        <v>3.265344482276</v>
+      </c>
+      <c r="S31">
+        <v>0.002324838039354351</v>
+      </c>
+      <c r="T31">
+        <v>0.00232483803935435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H32">
+        <v>1.273819</v>
+      </c>
+      <c r="I32">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J32">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>32.16470200000001</v>
+      </c>
+      <c r="N32">
+        <v>96.49410600000002</v>
+      </c>
+      <c r="O32">
+        <v>0.4018017290405418</v>
+      </c>
+      <c r="P32">
+        <v>0.4018017290405418</v>
+      </c>
+      <c r="Q32">
+        <v>13.65733617897934</v>
+      </c>
+      <c r="R32">
+        <v>122.916025610814</v>
+      </c>
+      <c r="S32">
+        <v>0.08751292659544899</v>
+      </c>
+      <c r="T32">
+        <v>0.08751292659544897</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H33">
+        <v>1.273819</v>
+      </c>
+      <c r="I33">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J33">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>13.83257733333333</v>
+      </c>
+      <c r="N33">
+        <v>41.497732</v>
+      </c>
+      <c r="O33">
+        <v>0.1727966728751393</v>
+      </c>
+      <c r="P33">
+        <v>0.1727966728751393</v>
+      </c>
+      <c r="Q33">
+        <v>5.873399942056444</v>
+      </c>
+      <c r="R33">
+        <v>52.860599478508</v>
+      </c>
+      <c r="S33">
+        <v>0.03763533468452067</v>
+      </c>
+      <c r="T33">
+        <v>0.03763533468452066</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H34">
+        <v>1.273819</v>
+      </c>
+      <c r="I34">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J34">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>12.759553</v>
+      </c>
+      <c r="N34">
+        <v>38.278659</v>
+      </c>
+      <c r="O34">
+        <v>0.1593924438405937</v>
+      </c>
+      <c r="P34">
+        <v>0.1593924438405937</v>
+      </c>
+      <c r="Q34">
+        <v>5.417787014302335</v>
+      </c>
+      <c r="R34">
+        <v>48.76008312872101</v>
+      </c>
+      <c r="S34">
+        <v>0.03471587658669249</v>
+      </c>
+      <c r="T34">
+        <v>0.03471587658669248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.392448053877027</v>
-      </c>
-      <c r="H25">
-        <v>0.392448053877027</v>
-      </c>
-      <c r="I25">
-        <v>0.251500049177651</v>
-      </c>
-      <c r="J25">
-        <v>0.251500049177651</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.45222152755762</v>
-      </c>
-      <c r="N25">
-        <v>4.45222152755762</v>
-      </c>
-      <c r="O25">
-        <v>0.06180396343901759</v>
-      </c>
-      <c r="P25">
-        <v>0.06180396343901759</v>
-      </c>
-      <c r="Q25">
-        <v>1.747265673919392</v>
-      </c>
-      <c r="R25">
-        <v>1.747265673919392</v>
-      </c>
-      <c r="S25">
-        <v>0.01554369984428667</v>
-      </c>
-      <c r="T25">
-        <v>0.01554369984428667</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H35">
+        <v>1.273819</v>
+      </c>
+      <c r="I35">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J35">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>8.611390999999999</v>
+      </c>
+      <c r="N35">
+        <v>25.834173</v>
+      </c>
+      <c r="O35">
+        <v>0.1075735691020598</v>
+      </c>
+      <c r="P35">
+        <v>0.1075735691020598</v>
+      </c>
+      <c r="Q35">
+        <v>3.656451157409667</v>
+      </c>
+      <c r="R35">
+        <v>32.908060416687</v>
+      </c>
+      <c r="S35">
+        <v>0.02342965989449272</v>
+      </c>
+      <c r="T35">
+        <v>0.02342965989449272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H36">
+        <v>1.273819</v>
+      </c>
+      <c r="I36">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J36">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>7.803816</v>
+      </c>
+      <c r="N36">
+        <v>23.411448</v>
+      </c>
+      <c r="O36">
+        <v>0.09748533538144531</v>
+      </c>
+      <c r="P36">
+        <v>0.0974853353814453</v>
+      </c>
+      <c r="Q36">
+        <v>3.313549697768</v>
+      </c>
+      <c r="R36">
+        <v>29.821947279912</v>
+      </c>
+      <c r="S36">
+        <v>0.02123242978506035</v>
+      </c>
+      <c r="T36">
+        <v>0.02123242978506035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4246063333333334</v>
+      </c>
+      <c r="H37">
+        <v>1.273819</v>
+      </c>
+      <c r="I37">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="J37">
+        <v>0.2178012693086717</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.879139333333334</v>
+      </c>
+      <c r="N37">
+        <v>14.637418</v>
+      </c>
+      <c r="O37">
+        <v>0.06095024976022007</v>
+      </c>
+      <c r="P37">
+        <v>0.06095024976022006</v>
+      </c>
+      <c r="Q37">
+        <v>2.071713462149111</v>
+      </c>
+      <c r="R37">
+        <v>18.645421159342</v>
+      </c>
+      <c r="S37">
+        <v>0.01327504176245649</v>
+      </c>
+      <c r="T37">
+        <v>0.01327504176245649</v>
       </c>
     </row>
   </sheetData>
